--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H2">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I2">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J2">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N2">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O2">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P2">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q2">
-        <v>4708.023401433372</v>
+        <v>3768.015020497553</v>
       </c>
       <c r="R2">
-        <v>42372.21061290034</v>
+        <v>33912.13518447798</v>
       </c>
       <c r="S2">
-        <v>0.0390594230462394</v>
+        <v>0.0348965017819101</v>
       </c>
       <c r="T2">
-        <v>0.03905942304623941</v>
+        <v>0.0348965017819101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H3">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I3">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J3">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.486704</v>
       </c>
       <c r="O3">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P3">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q3">
-        <v>32.281001500848</v>
+        <v>23.78692567271467</v>
       </c>
       <c r="R3">
-        <v>290.5290135076319</v>
+        <v>214.082331054432</v>
       </c>
       <c r="S3">
-        <v>0.0002678145766212702</v>
+        <v>0.0002202964928771545</v>
       </c>
       <c r="T3">
-        <v>0.0002678145766212702</v>
+        <v>0.0002202964928771546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H4">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I4">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J4">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N4">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O4">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P4">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q4">
-        <v>2385.932022859728</v>
+        <v>6880.49023907707</v>
       </c>
       <c r="R4">
-        <v>21473.38820573755</v>
+        <v>61924.41215169363</v>
       </c>
       <c r="S4">
-        <v>0.01979453377654727</v>
+        <v>0.06372189032746027</v>
       </c>
       <c r="T4">
-        <v>0.01979453377654727</v>
+        <v>0.06372189032746028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H5">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I5">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J5">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N5">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O5">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P5">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q5">
-        <v>46004.50212566394</v>
+        <v>32335.47363472939</v>
       </c>
       <c r="R5">
-        <v>414040.5191309754</v>
+        <v>291019.2627125645</v>
       </c>
       <c r="S5">
-        <v>0.3816695792146771</v>
+        <v>0.2994666706939615</v>
       </c>
       <c r="T5">
-        <v>0.3816695792146771</v>
+        <v>0.2994666706939615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J6">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N6">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O6">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P6">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q6">
-        <v>4655.908904221608</v>
+        <v>5056.932671942612</v>
       </c>
       <c r="R6">
-        <v>41903.18013799448</v>
+        <v>45512.39404748351</v>
       </c>
       <c r="S6">
-        <v>0.03862706279229151</v>
+        <v>0.04683348103377322</v>
       </c>
       <c r="T6">
-        <v>0.03862706279229153</v>
+        <v>0.04683348103377323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J7">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.486704</v>
       </c>
       <c r="O7">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P7">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q7">
         <v>31.92367359075378</v>
@@ -883,10 +883,10 @@
         <v>287.313062316784</v>
       </c>
       <c r="S7">
-        <v>0.0002648500582201192</v>
+        <v>0.0002956528905231786</v>
       </c>
       <c r="T7">
-        <v>0.0002648500582201193</v>
+        <v>0.0002956528905231787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>590.324021</v>
       </c>
       <c r="I8">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J8">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N8">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O8">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P8">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q8">
-        <v>2359.521438809758</v>
+        <v>9234.086302654023</v>
       </c>
       <c r="R8">
-        <v>21235.69294928782</v>
+        <v>83106.7767238862</v>
       </c>
       <c r="S8">
-        <v>0.01957542225407863</v>
+        <v>0.08551911480234158</v>
       </c>
       <c r="T8">
-        <v>0.01957542225407864</v>
+        <v>0.08551911480234162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>590.324021</v>
       </c>
       <c r="I9">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J9">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N9">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O9">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P9">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q9">
-        <v>45495.26474654927</v>
+        <v>43396.40691363539</v>
       </c>
       <c r="R9">
-        <v>409457.3827189434</v>
+        <v>390567.6622227185</v>
       </c>
       <c r="S9">
-        <v>0.3774447662675404</v>
+        <v>0.401904658806324</v>
       </c>
       <c r="T9">
-        <v>0.3774447662675405</v>
+        <v>0.4019046588063241</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H10">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N10">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O10">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P10">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q10">
-        <v>1313.1626357943</v>
+        <v>621.2601209311966</v>
       </c>
       <c r="R10">
-        <v>11818.4637221487</v>
+        <v>5591.341088380769</v>
       </c>
       <c r="S10">
-        <v>0.01089446048725853</v>
+        <v>0.005753640789426165</v>
       </c>
       <c r="T10">
-        <v>0.01089446048725853</v>
+        <v>0.005753640789426166</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H11">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.486704</v>
       </c>
       <c r="O11">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P11">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q11">
-        <v>9.003822071918224</v>
+        <v>3.921923941285334</v>
       </c>
       <c r="R11">
-        <v>81.034398647264</v>
+        <v>35.29731547156801</v>
       </c>
       <c r="S11">
-        <v>7.469888429888654E-05</v>
+        <v>3.632188965836645E-05</v>
       </c>
       <c r="T11">
-        <v>7.469888429888654E-05</v>
+        <v>3.632188965836646E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H12">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N12">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O12">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P12">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q12">
-        <v>665.4845392252338</v>
+        <v>1134.436613108431</v>
       </c>
       <c r="R12">
-        <v>5989.360853027104</v>
+        <v>10209.92951797588</v>
       </c>
       <c r="S12">
-        <v>0.005521094508667125</v>
+        <v>0.01050629285590666</v>
       </c>
       <c r="T12">
-        <v>0.005521094508667126</v>
+        <v>0.01050629285590666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H13">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N13">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O13">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P13">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q13">
-        <v>12831.58304849311</v>
+        <v>5331.385398253231</v>
       </c>
       <c r="R13">
-        <v>115484.247436438</v>
+        <v>47982.46858427908</v>
       </c>
       <c r="S13">
-        <v>0.1064553397273804</v>
+        <v>0.04937525435491141</v>
       </c>
       <c r="T13">
-        <v>0.1064553397273804</v>
+        <v>0.04937525435491141</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H14">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N14">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O14">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P14">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q14">
-        <v>3.748489063648</v>
+        <v>13.90848321951667</v>
       </c>
       <c r="R14">
-        <v>33.736401572832</v>
+        <v>125.17634897565</v>
       </c>
       <c r="S14">
-        <v>3.109878767311414E-05</v>
+        <v>0.0001288098393486341</v>
       </c>
       <c r="T14">
-        <v>3.109878767311415E-05</v>
+        <v>0.0001288098393486342</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H15">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.486704</v>
       </c>
       <c r="O15">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P15">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q15">
-        <v>0.025701864832</v>
+        <v>0.08780221277333335</v>
       </c>
       <c r="R15">
-        <v>0.231316783488</v>
+        <v>0.7902199149600001</v>
       </c>
       <c r="S15">
-        <v>2.13231737812669E-07</v>
+        <v>8.131576062814336E-07</v>
       </c>
       <c r="T15">
-        <v>2.13231737812669E-07</v>
+        <v>8.131576062814337E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H16">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N16">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O16">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P16">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q16">
-        <v>1.899659226752</v>
+        <v>25.39724032724667</v>
       </c>
       <c r="R16">
-        <v>17.096933040768</v>
+        <v>228.57516294522</v>
       </c>
       <c r="S16">
-        <v>1.576024311153766E-05</v>
+        <v>0.0002352100077929979</v>
       </c>
       <c r="T16">
-        <v>1.576024311153766E-05</v>
+        <v>0.0002352100077929979</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H17">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I17">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J17">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N17">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O17">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P17">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q17">
-        <v>36.628401856312</v>
+        <v>119.356581647695</v>
       </c>
       <c r="R17">
-        <v>329.655616706808</v>
+        <v>1074.209234829255</v>
       </c>
       <c r="S17">
-        <v>0.0003038821436566724</v>
+        <v>0.001105390276178224</v>
       </c>
       <c r="T17">
-        <v>0.0003038821436566724</v>
+        <v>0.001105390276178225</v>
       </c>
     </row>
   </sheetData>
